--- a/PES/SRB Invoices/1022  Invoice for HVAC work food court hydery mall.xlsx
+++ b/PES/SRB Invoices/1022  Invoice for HVAC work food court hydery mall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7318C71D-6C02-4F02-B3C1-FAA6A78778A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D65786C-9F6C-4848-AF8A-94D2CD71DCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,13 +85,13 @@
     <t>Value Including Sales Tax</t>
   </si>
   <si>
-    <t>Invoice # 1018</t>
-  </si>
-  <si>
-    <t>Dated: 08-12-2023</t>
-  </si>
-  <si>
-    <t>Service charges of Plumbing and swimming pool work at Burhani Mehal.</t>
+    <t>Dated: 29-12-2023</t>
+  </si>
+  <si>
+    <t>Service charges of HVAC Work Food Court The North Walk Shopping Mall.</t>
+  </si>
+  <si>
+    <t>Invoice # 1022</t>
   </si>
 </sst>
 </file>
@@ -406,6 +406,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -423,51 +468,6 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1035,16 +1035,16 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1064,11 +1064,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
+      <c r="F14" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -1077,11 +1077,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="F15" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1101,85 +1101,85 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="33"/>
       <c r="E18" s="4"/>
       <c r="F18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="55"/>
+      <c r="H18" s="49"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="34"/>
       <c r="E19" s="3"/>
       <c r="F19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="47"/>
+      <c r="H19" s="41"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="24"/>
       <c r="E20" s="3"/>
       <c r="F20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="35"/>
       <c r="E21" s="3"/>
       <c r="F21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="48"/>
+      <c r="H21" s="42"/>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1204,11 +1204,11 @@
       <c r="A25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="28" t="s">
         <v>13</v>
       </c>
@@ -1236,9 +1236,9 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1247,9 +1247,9 @@
     </row>
     <row r="28" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1257,40 +1257,40 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="46">
+      <c r="A29" s="40">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43">
-        <v>365000</v>
-      </c>
-      <c r="F29" s="44">
+      <c r="B29" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58">
+        <v>756600</v>
+      </c>
+      <c r="F29" s="59">
         <v>0.13</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="58">
         <f>E29*13%</f>
-        <v>47450</v>
-      </c>
-      <c r="H29" s="54">
+        <v>98358</v>
+      </c>
+      <c r="H29" s="48">
         <f>E29+G29</f>
-        <v>412450</v>
+        <v>854958</v>
       </c>
       <c r="I29" s="8"/>
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="54"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="48"/>
       <c r="I30" s="8"/>
       <c r="L30" s="8"/>
     </row>
@@ -1363,23 +1363,23 @@
     </row>
     <row r="37" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="16">
         <f>SUM(E29:E35)</f>
-        <v>365000</v>
+        <v>756600</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="18">
         <f>SUM(G29:G35)</f>
-        <v>47450</v>
+        <v>98358</v>
       </c>
       <c r="H37" s="19">
         <f>SUM(H29:H35)</f>
-        <v>412450</v>
+        <v>854958</v>
       </c>
       <c r="L37" s="21"/>
     </row>
@@ -1430,6 +1430,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B19:C19"/>
@@ -1446,11 +1451,6 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B27:D28"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
